--- a/倍投数据.xlsx
+++ b/倍投数据.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -115,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -249,6 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -267,7 +274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -309,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,7 +351,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2255,21 +2262,21 @@
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
+      <c r="A26" s="15">
         <v>7</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="15">
         <f t="shared" si="12"/>
         <v>128.68421052631578</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="15">
         <f t="shared" si="16"/>
         <v>643.42105263157896</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="15">
         <v>35</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="15">
         <f t="shared" si="17"/>
         <v>1251.8421052631579</v>
       </c>
@@ -2439,26 +2446,26 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <v>10</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="8">
         <f t="shared" si="12"/>
         <v>1036.4736842105262</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="8">
         <f t="shared" si="16"/>
         <v>5182.3684210526317</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="8">
         <f t="shared" ref="D29:D30" si="23">D28+5</f>
         <v>50</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="8">
         <f t="shared" si="17"/>
         <v>10314.736842105263</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="8">
         <f t="shared" si="13"/>
         <v>1036.4736842105262</v>
       </c>
